--- a/regions/7/ganatleba/ganatleba.xlsx
+++ b/regions/7/ganatleba/ganatleba.xlsx
@@ -1,97 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\გამოქვეყნებული 2022\2023 გამოქვეყნება\განათლება 2023\უმაღლესი და პროფეს2023\განათლება რეგიონი 2023\განათლება\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BFD7C9-12CE-4634-BCF7-853CD48541C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485"/>
+    <workbookView xWindow="2685" yWindow="1050" windowWidth="21720" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="რაჭა...ქვემო სვანეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>განათლება</t>
   </si>
   <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>სახელმწიფო</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>კერძო</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა, ერთეული</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა, კაცი</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>საგანმანათლებლო დაწესებულებების რაოდენობა</t>
-  </si>
-  <si>
-    <t>კურსდამთავრებულთა რიცხოვნობა</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>მასწავლებლების რიცხოვნობა**</t>
-  </si>
-  <si>
-    <t>* 2013-2016 წლების მონაცემები მოიცავს რაჭა-ლეჩხუმის და ქვემო სვანეთის, გურიის, კახეთის, მცხეთა-მთიანეთის რეგიონების ჯამს; 2017 წლიდან მონაცემები მოიცავს რაჭა-ლეჩხუმის და ქვემო სვანეთის, გურიის, მცხეთა-მთიანეთის რეგიონების ჯამს.</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">სკოლებისა და მოსწავლეების რაოდენობა რაჭა-ლეჩხუმისა და ქვემო სავნეთის რეგიონში 
 </t>
     </r>
@@ -106,46 +47,73 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">პროფესიული განათლების მაჩვენებლები  რაჭა-ლეჩხუმისა და ქვემო სავნეთის* რეგიონში 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>(ერთეული)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">უმაღლესი საგანმანათლებლო დაწესებულებების რაოდენობა რაჭა-ლეჩხუმისა და ქვემო სვანეთის რეგიონში 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>(სასწავლო წლის დასაწყისისთვის, ერთეული)</t>
-    </r>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
   </si>
   <si>
     <t>2019/2020</t>
   </si>
   <si>
-    <t>ჩარიცხული სტუდენტების რიცხოვნობა</t>
-  </si>
-  <si>
     <t>2020/2021</t>
   </si>
   <si>
     <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა, ერთეული</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა, კაცი</t>
+  </si>
+  <si>
+    <t>2 883</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
   </si>
   <si>
     <r>
@@ -169,15 +137,112 @@
       <t xml:space="preserve">  საქართველოს განათლებისა და მეცნიერების სამინისტრო.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">პროფესიული განათლების მაჩვენებლები  რაჭა-ლეჩხუმისა და ქვემო სვანეთის* რეგიონში 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ერთეული)</t>
+    </r>
+  </si>
+  <si>
+    <t>საგანმანათლებლო დაწესებულებების რაოდენობა</t>
+  </si>
+  <si>
+    <t>ჩარიცხული სტუდენტების რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>მასწავლებლების რიცხოვნობა**</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">უმაღლესი საგანმანათლებლო დაწესებულებების რაოდენობა რაჭა-ლეჩხუმისა და ქვემო სვანეთის რეგიონში 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>(სასწავლო წლის დასაწყისისთვის, ერთეული)</t>
+    </r>
+  </si>
+  <si>
+    <t>სახელმწიფო</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>კერძო</t>
+  </si>
+  <si>
+    <t>* 2013-2016 წლების მონაცემები მოიცავს რაჭა-ლეჩხუმის და ქვემო სვანეთის, გურიის, კახეთის, მცხეთა-მთიანეთის რეგიონების ჯამს; 2017 წლიდან მონაცემები მოიცავს რაჭა-ლეჩხუმის და ქვემო სვანეთის, გურიის, მცხეთა-მთიანეთის რეგიონების ჯამს; 2023 წლიდან მონაცემები მოიცავს რაჭა-ლეჩხუმის და ქვემო სვანეთის რეგიონს.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> „ -“ - მონაცემი არ არის ან კონფიდენციალურია.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +259,27 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -212,6 +296,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -223,25 +313,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="9"/>
@@ -250,18 +321,32 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -277,7 +362,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -285,10 +370,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -296,85 +381,89 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C0DC646F-D00F-48A1-8D35-E0105A73B5CC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,46 +764,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="11" customWidth="1"/>
-    <col min="2" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="45.7109375" style="2" customWidth="1"/>
+    <col min="2" max="19" width="10.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-    </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -733,187 +824,205 @@
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="25" t="s">
+      <c r="S3" s="27"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="25" t="s">
+      <c r="O4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="T4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
+        <v>72</v>
+      </c>
+      <c r="C5" s="7">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3">
+        <v>68</v>
+      </c>
+      <c r="K5" s="3">
+        <v>68</v>
+      </c>
+      <c r="L5" s="3">
+        <v>68</v>
+      </c>
+      <c r="M5" s="3">
+        <v>68</v>
+      </c>
+      <c r="N5" s="3">
+        <v>68</v>
+      </c>
+      <c r="O5" s="3">
+        <v>68</v>
+      </c>
+      <c r="P5" s="3">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>68</v>
+      </c>
+      <c r="R5" s="3">
+        <v>68</v>
+      </c>
+      <c r="S5" s="3">
+        <v>68</v>
+      </c>
+      <c r="T5" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
-        <v>72</v>
-      </c>
-      <c r="C5" s="3">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1">
-        <v>68</v>
-      </c>
-      <c r="H5" s="1">
-        <v>68</v>
-      </c>
-      <c r="I5" s="1">
-        <v>68</v>
-      </c>
-      <c r="J5" s="1">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1">
-        <v>68</v>
-      </c>
-      <c r="L5" s="1">
-        <v>68</v>
-      </c>
-      <c r="M5" s="1">
-        <v>68</v>
-      </c>
-      <c r="N5" s="1">
-        <v>68</v>
-      </c>
-      <c r="O5" s="2">
-        <v>68</v>
-      </c>
-      <c r="P5" s="2">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>68</v>
-      </c>
-      <c r="R5" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="B6" s="9">
         <v>5376</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="9">
         <v>5135</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="10">
         <v>4806</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="10">
         <v>5010</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="10">
         <v>4629</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="10">
         <v>4365</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="10">
         <v>4074</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="10">
         <v>3825</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="10">
         <v>3627</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="10">
         <v>3436</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="10">
         <v>3261</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="10">
         <v>3136</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="10">
         <v>3013</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="10">
         <v>2954</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="10">
         <v>2928</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="10">
         <v>2939</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="10">
         <v>2907</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:18" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="25">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1"/>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="27" t="s">
         <v>26</v>
       </c>
@@ -926,168 +1035,199 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="25">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
         <v>2013</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="6">
         <v>2014</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="6">
         <v>2015</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="6">
         <v>2016</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="6">
         <v>2017</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="6">
         <v>2018</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="6">
         <v>2019</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="6">
         <v>2020</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="K11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="13">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="13">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="13">
         <v>4</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="14">
         <v>4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="K12" s="3">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1530</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1427</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1408</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1576</v>
+      </c>
+      <c r="F13" s="15">
+        <v>627</v>
+      </c>
+      <c r="G13" s="16">
+        <v>502</v>
+      </c>
+      <c r="H13" s="3">
+        <v>376</v>
+      </c>
+      <c r="I13" s="3">
+        <v>680</v>
+      </c>
+      <c r="J13" s="3">
+        <v>481</v>
+      </c>
+      <c r="K13" s="3">
+        <v>574</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="22">
-        <v>1530</v>
-      </c>
-      <c r="C13" s="22">
-        <v>1427</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1408</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1576</v>
-      </c>
-      <c r="F13" s="22">
-        <v>627</v>
-      </c>
-      <c r="G13" s="23">
-        <v>502</v>
-      </c>
-      <c r="H13" s="1">
-        <v>376</v>
-      </c>
-      <c r="I13" s="1">
-        <v>680</v>
-      </c>
-      <c r="J13" s="1">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>715</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="15">
         <v>1327</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="16">
         <v>1362</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="16">
         <v>1088</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="16">
         <v>516</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="16">
         <v>165</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>412</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>114</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>306</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>327</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="7">
+        <v>30</v>
+      </c>
+      <c r="B15" s="18">
         <v>134</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="18">
         <v>155</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="19">
         <v>238</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="19">
         <v>276</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="19">
         <v>127</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="19">
         <v>167</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="20">
         <v>194</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="20">
         <v>239</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="20">
         <v>268</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="20">
+        <v>327</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1097,24 +1237,23 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1"/>
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -1131,174 +1270,197 @@
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="25" t="s">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="25" t="s">
+      <c r="M20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="24">
         <v>1</v>
       </c>
-      <c r="K20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="J22" s="24">
         <v>1</v>
       </c>
-      <c r="J22" s="9">
+      <c r="K22" s="24">
         <v>1</v>
       </c>
-      <c r="K22" s="9">
+      <c r="L22" s="24">
         <v>1</v>
       </c>
-      <c r="L22" s="9">
+      <c r="M22" s="24">
         <v>1</v>
       </c>
-      <c r="M22" s="9">
+      <c r="N22" s="24">
         <v>1</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="24">
         <v>1</v>
       </c>
-      <c r="O22" s="9">
+      <c r="P22" s="24">
         <v>1</v>
       </c>
-      <c r="P22" s="9">
+      <c r="Q22" s="24">
         <v>1</v>
       </c>
-      <c r="Q22" s="9">
-        <v>1</v>
+      <c r="R22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A16:J16"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>